--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>13.40862503473289</v>
+        <v>88.10772302444165</v>
       </c>
       <c r="R2">
-        <v>120.677625312596</v>
+        <v>792.969507219975</v>
       </c>
       <c r="S2">
-        <v>0.0002264485352286731</v>
+        <v>0.001149383272337774</v>
       </c>
       <c r="T2">
-        <v>0.0002264485352286731</v>
+        <v>0.001149383272337774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>905.5663210778396</v>
+        <v>1505.345274097984</v>
       </c>
       <c r="R3">
-        <v>8150.096889700557</v>
+        <v>13548.10746688186</v>
       </c>
       <c r="S3">
-        <v>0.01529345226891715</v>
+        <v>0.01963753707108025</v>
       </c>
       <c r="T3">
-        <v>0.01529345226891715</v>
+        <v>0.01963753707108025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>528.1835328896133</v>
+        <v>377.5195794185005</v>
       </c>
       <c r="R4">
-        <v>4753.651796006519</v>
+        <v>3397.676214766505</v>
       </c>
       <c r="S4">
-        <v>0.008920108291859715</v>
+        <v>0.004924820148209317</v>
       </c>
       <c r="T4">
-        <v>0.008920108291859716</v>
+        <v>0.004924820148209316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>2.901808496910222</v>
+        <v>0.18558113361</v>
       </c>
       <c r="R5">
-        <v>26.116276472192</v>
+        <v>1.67023020249</v>
       </c>
       <c r="S5">
-        <v>4.900653735467274E-05</v>
+        <v>2.420943854985828E-06</v>
       </c>
       <c r="T5">
-        <v>4.900653735467275E-05</v>
+        <v>2.420943854985828E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>530.2995503333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>1590.898651</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.6553774102381563</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.6553774102381563</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>358.8429229530432</v>
+        <v>0.3187225858733334</v>
       </c>
       <c r="R6">
-        <v>3229.586306577389</v>
+        <v>2.86850327286</v>
       </c>
       <c r="S6">
-        <v>0.006060237650721283</v>
+        <v>4.157801338452765E-06</v>
       </c>
       <c r="T6">
-        <v>0.006060237650721284</v>
+        <v>4.157801338452763E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>24234.85366632742</v>
+        <v>1418.463797715862</v>
       </c>
       <c r="R7">
-        <v>218113.6829969468</v>
+        <v>12766.17417944275</v>
       </c>
       <c r="S7">
-        <v>0.4092848521011987</v>
+        <v>0.01850415043706272</v>
       </c>
       <c r="T7">
-        <v>0.4092848521011988</v>
+        <v>0.01850415043706271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>14135.2989069956</v>
+        <v>24234.85366632742</v>
       </c>
       <c r="R8">
-        <v>127217.6901629604</v>
+        <v>218113.6829969468</v>
       </c>
       <c r="S8">
-        <v>0.2387208027830709</v>
+        <v>0.3161486241552662</v>
       </c>
       <c r="T8">
-        <v>0.238720802783071</v>
+        <v>0.3161486241552662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>77.65848028294755</v>
+        <v>6077.762969603816</v>
       </c>
       <c r="R9">
-        <v>698.926322546528</v>
+        <v>54699.86672643435</v>
       </c>
       <c r="S9">
-        <v>0.001311517703165348</v>
+        <v>0.07928566135523336</v>
       </c>
       <c r="T9">
-        <v>0.001311517703165348</v>
+        <v>0.07928566135523335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.1551646666667</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>342.465494</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>77.24647877491846</v>
+        <v>2.987707666578</v>
       </c>
       <c r="R10">
-        <v>695.2183089742661</v>
+        <v>26.889368999202</v>
       </c>
       <c r="S10">
-        <v>0.001304559708757754</v>
+        <v>3.897525774951028E-05</v>
       </c>
       <c r="T10">
-        <v>0.001304559708757754</v>
+        <v>3.897525774951028E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.1551646666667</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>342.465494</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>5216.926375315993</v>
+        <v>5.131178449025334</v>
       </c>
       <c r="R11">
-        <v>46952.33737784393</v>
+        <v>46.180606041228</v>
       </c>
       <c r="S11">
-        <v>0.08810488271735545</v>
+        <v>6.693727262766446E-05</v>
       </c>
       <c r="T11">
-        <v>0.08810488271735546</v>
+        <v>6.693727262766445E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H12">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>3042.841302291047</v>
+        <v>1129.263970360272</v>
       </c>
       <c r="R12">
-        <v>27385.57172061942</v>
+        <v>10163.37573324244</v>
       </c>
       <c r="S12">
-        <v>0.05138833803259097</v>
+        <v>0.01473147952337588</v>
       </c>
       <c r="T12">
-        <v>0.05138833803259098</v>
+        <v>0.01473147952337587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H13">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>16.71718672755911</v>
+        <v>19293.79312775327</v>
       </c>
       <c r="R13">
-        <v>150.454680548032</v>
+        <v>173644.1381497794</v>
       </c>
       <c r="S13">
-        <v>0.000282324432057279</v>
+        <v>0.2516914785646355</v>
       </c>
       <c r="T13">
-        <v>0.000282324432057279</v>
+        <v>0.2516914785646355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.330706</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>168.992118</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.06961701587708551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.06961701587708552</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>38.117843359178</v>
+        <v>4838.613966049401</v>
       </c>
       <c r="R14">
-        <v>343.060590232602</v>
+        <v>43547.52569444461</v>
       </c>
       <c r="S14">
-        <v>0.0006437445877114732</v>
+        <v>0.06312070909305351</v>
       </c>
       <c r="T14">
-        <v>0.0006437445877114734</v>
+        <v>0.06312070909305349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.330706</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>168.992118</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.06961701587708551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.06961701587708552</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>2574.330707941958</v>
+        <v>2.378566606542</v>
       </c>
       <c r="R15">
-        <v>23168.97637147762</v>
+        <v>21.407099458878</v>
       </c>
       <c r="S15">
-        <v>0.04347600268466022</v>
+        <v>3.102888800045599E-05</v>
       </c>
       <c r="T15">
-        <v>0.04347600268466024</v>
+        <v>3.102888800045599E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.330706</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>168.992118</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.06961701587708551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.06961701587708552</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>1501.51243094886</v>
+        <v>4.085021385321333</v>
       </c>
       <c r="R16">
-        <v>13513.61187853974</v>
+        <v>36.765192467892</v>
       </c>
       <c r="S16">
-        <v>0.02535795353626926</v>
+        <v>5.328993970401353E-05</v>
       </c>
       <c r="T16">
-        <v>0.02535795353626927</v>
+        <v>5.328993970401351E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H17">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I17">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J17">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>8.249218801855999</v>
+        <v>44.15955717143999</v>
       </c>
       <c r="R17">
-        <v>74.242969216704</v>
+        <v>397.43601454296</v>
       </c>
       <c r="S17">
-        <v>0.0001393150684445501</v>
+        <v>0.0005760704576671059</v>
       </c>
       <c r="T17">
-        <v>0.0001393150684445502</v>
+        <v>0.0005760704576671057</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.22062233333333</v>
+        <v>16.509264</v>
       </c>
       <c r="H18">
-        <v>138.661867</v>
+        <v>49.527792</v>
       </c>
       <c r="I18">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J18">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>31.27655531364589</v>
+        <v>754.478477168752</v>
       </c>
       <c r="R18">
-        <v>281.488997822813</v>
+        <v>6790.306294518768</v>
       </c>
       <c r="S18">
-        <v>0.0005282070398290299</v>
+        <v>0.009842326089349485</v>
       </c>
       <c r="T18">
-        <v>0.00052820703982903</v>
+        <v>0.009842326089349485</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.22062233333333</v>
+        <v>16.509264</v>
       </c>
       <c r="H19">
-        <v>138.661867</v>
+        <v>49.527792</v>
       </c>
       <c r="I19">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J19">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>2112.296753619383</v>
+        <v>189.212669200912</v>
       </c>
       <c r="R19">
-        <v>19010.67078257445</v>
+        <v>1702.914022808208</v>
       </c>
       <c r="S19">
-        <v>0.03567304660890751</v>
+        <v>0.002468317979725558</v>
       </c>
       <c r="T19">
-        <v>0.03567304660890752</v>
+        <v>0.002468317979725558</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.22062233333333</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>138.661867</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>1232.025016687923</v>
+        <v>0.09301319337599999</v>
       </c>
       <c r="R20">
-        <v>11088.22515019131</v>
+        <v>0.837118740384</v>
       </c>
       <c r="S20">
-        <v>0.02080677621093753</v>
+        <v>1.213376136657579E-06</v>
       </c>
       <c r="T20">
-        <v>0.02080677621093753</v>
+        <v>1.213376136657579E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.22062233333333</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>138.661867</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.05712234103418551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>6.768671189486222</v>
+        <v>0.159743638464</v>
       </c>
       <c r="R21">
-        <v>60.918040705376</v>
+        <v>1.437692746176</v>
       </c>
       <c r="S21">
-        <v>0.0001143111745114296</v>
+        <v>2.083888444852455E-06</v>
       </c>
       <c r="T21">
-        <v>0.0001143111745114296</v>
+        <v>2.083888444852455E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.33003733333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H22">
-        <v>126.990112</v>
+        <v>133.862825</v>
       </c>
       <c r="I22">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J22">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>28.64387555270755</v>
+        <v>119.3536565029583</v>
       </c>
       <c r="R22">
-        <v>257.794879974368</v>
+        <v>1074.182908526625</v>
       </c>
       <c r="S22">
-        <v>0.0004837456223424207</v>
+        <v>0.00155699286700206</v>
       </c>
       <c r="T22">
-        <v>0.0004837456223424208</v>
+        <v>0.00155699286700206</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.33003733333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H23">
-        <v>126.990112</v>
+        <v>133.862825</v>
       </c>
       <c r="I23">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J23">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>1934.495814334894</v>
+        <v>2039.190851784936</v>
       </c>
       <c r="R23">
-        <v>17410.46232901405</v>
+        <v>18352.71766606443</v>
       </c>
       <c r="S23">
-        <v>0.03267029560655191</v>
+        <v>0.02660166184859451</v>
       </c>
       <c r="T23">
-        <v>0.03267029560655191</v>
+        <v>0.02660166184859451</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.33003733333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H24">
-        <v>126.990112</v>
+        <v>133.862825</v>
       </c>
       <c r="I24">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J24">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>1128.320267431573</v>
+        <v>511.4005975680194</v>
       </c>
       <c r="R24">
-        <v>10154.88240688416</v>
+        <v>4602.605378112175</v>
       </c>
       <c r="S24">
-        <v>0.01905538197741051</v>
+        <v>0.00667132541996534</v>
       </c>
       <c r="T24">
-        <v>0.01905538197741051</v>
+        <v>0.006671325419965339</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.33003733333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H25">
-        <v>126.990112</v>
+        <v>133.862825</v>
       </c>
       <c r="I25">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J25">
-        <v>0.05231411232645103</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>6.198923547192888</v>
+        <v>0.25139438535</v>
       </c>
       <c r="R25">
-        <v>55.790311924736</v>
+        <v>2.26254946815</v>
       </c>
       <c r="S25">
-        <v>0.0001046891201461898</v>
+        <v>3.279491188312403E-06</v>
       </c>
       <c r="T25">
-        <v>0.0001046891201461898</v>
+        <v>3.279491188312403E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>44.62094166666666</v>
+      </c>
+      <c r="H26">
+        <v>133.862825</v>
+      </c>
+      <c r="I26">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="J26">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.4317522315666666</v>
+      </c>
+      <c r="R26">
+        <v>3.8857700841</v>
+      </c>
+      <c r="S26">
+        <v>5.632296190647997E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.632296190647997E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>234.229538</v>
+      </c>
+      <c r="H27">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J27">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>626.5253662762299</v>
+      </c>
+      <c r="R27">
+        <v>5638.728296486069</v>
+      </c>
+      <c r="S27">
+        <v>0.008173151580519565</v>
+      </c>
+      <c r="T27">
+        <v>0.008173151580519563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>234.229538</v>
+      </c>
+      <c r="H28">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J28">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>10704.36241968027</v>
+      </c>
+      <c r="R28">
+        <v>96339.2617771224</v>
+      </c>
+      <c r="S28">
+        <v>0.1396405977125132</v>
+      </c>
+      <c r="T28">
+        <v>0.1396405977125132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>234.229538</v>
+      </c>
+      <c r="H29">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J29">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>2684.504656941487</v>
+      </c>
+      <c r="R29">
+        <v>24160.54191247338</v>
+      </c>
+      <c r="S29">
+        <v>0.03501991245813326</v>
+      </c>
+      <c r="T29">
+        <v>0.03501991245813325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>234.229538</v>
+      </c>
+      <c r="H30">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J30">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>1.319649217092</v>
+      </c>
+      <c r="R30">
+        <v>11.876842953828</v>
+      </c>
+      <c r="S30">
+        <v>1.721509401688225E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.721509401688225E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>234.229538</v>
+      </c>
+      <c r="H31">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J31">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>2.266405009688</v>
+      </c>
+      <c r="R31">
+        <v>20.397645087192</v>
+      </c>
+      <c r="S31">
+        <v>2.956571702295929E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.956571702295929E-05</v>
       </c>
     </row>
   </sheetData>
